--- a/results/NC/NC_areas.xlsx
+++ b/results/NC/NC_areas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/pg/results/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3D03E4-B559-7240-8949-6699FBEAACEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DED56D1-5B69-2547-8312-E84D9A2236F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12100" yWindow="10220" windowWidth="27640" windowHeight="16940" xr2:uid="{0F9B880B-A224-E145-A52F-F78A29587CD8}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="NC_areas" localSheetId="0">Sheet1!$A$1:$D$190</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{521B8D38-B454-DA4F-95B3-C4F235A46E3D}" name="NC_areas" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/pg/results/NC/NC_areas.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/pg/results/NC/NC_areas.csv" comma="1">
       <textFields count="4">
         <textField/>
         <textField type="text"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>AREA</t>
   </si>
@@ -638,7 +638,10 @@
     <t>% BLOCKS</t>
   </si>
   <si>
-    <t>% POPULATION</t>
+    <t>% POP</t>
+  </si>
+  <si>
+    <t>% DISTRICT</t>
   </si>
 </sst>
 </file>
@@ -672,12 +675,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -702,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -714,6 +723,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,13 +1045,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D066D6-D79A-A148-9986-F2AF4331A161}">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
+      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,9 +1060,10 @@
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1063,14 +1076,18 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1083,16 +1100,20 @@
       <c r="D2" s="5">
         <v>393152</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <f>SUM(C$2:C2)/SUM(C$2:C$190)</f>
         <v>6.812454546992068E-2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <f>SUM(D$2:D2)/SUM(D$2:D$190)</f>
         <v>3.7660445229164778E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="6">
+        <f>D2/745671</f>
+        <v>0.52724593017564048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1105,16 +1126,20 @@
       <c r="D3" s="5">
         <v>321502</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <f>SUM(C$2:C3)/SUM(C$2:C$190)</f>
         <v>9.7404738951747935E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <f>SUM(D$2:D3)/SUM(D$2:D$190)</f>
         <v>6.8457461299455485E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H66" si="0">D3/745671</f>
+        <v>0.43115797717760246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1127,16 +1152,20 @@
       <c r="D4" s="5">
         <v>291253</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <f>SUM(C$2:C4)/SUM(C$2:C$190)</f>
         <v>0.11943782028514892</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <f>SUM(D$2:D4)/SUM(D$2:D$190)</f>
         <v>9.6356893718290759E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.39059182937247122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1149,16 +1178,20 @@
       <c r="D5" s="5">
         <v>289412</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <f>SUM(C$2:C5)/SUM(C$2:C$190)</f>
         <v>0.13974580141052312</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <f>SUM(D$2:D5)/SUM(D$2:D$190)</f>
         <v>0.12407997480312065</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.38812291211539673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1171,16 +1204,20 @@
       <c r="D6" s="5">
         <v>279570</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <f>SUM(C$2:C6)/SUM(C$2:C$190)</f>
         <v>0.15964364841781251</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <f>SUM(D$2:D6)/SUM(D$2:D$190)</f>
         <v>0.15086028031528284</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3749240616840403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1193,16 +1230,20 @@
       <c r="D7" s="5">
         <v>278220</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <f>SUM(C$2:C7)/SUM(C$2:C$190)</f>
         <v>0.19383699494308862</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <f>SUM(D$2:D7)/SUM(D$2:D$190)</f>
         <v>0.17751126790191149</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.37311361176711982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1215,16 +1256,20 @@
       <c r="D8" s="5">
         <v>249621</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <f>SUM(C$2:C8)/SUM(C$2:C$190)</f>
         <v>0.2078914878143657</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <f>SUM(D$2:D8)/SUM(D$2:D$190)</f>
         <v>0.20142272707940351</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.33476023608266919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1237,16 +1282,20 @@
       <c r="D9" s="5">
         <v>193659</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <f>SUM(C$2:C9)/SUM(C$2:C$190)</f>
         <v>0.21798839785546367</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <f>SUM(D$2:D9)/SUM(D$2:D$190)</f>
         <v>0.21997352718377744</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.25971105219325952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1259,16 +1308,20 @@
       <c r="D10" s="5">
         <v>192470</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <f>SUM(C$2:C10)/SUM(C$2:C$190)</f>
         <v>0.24531939722969201</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <f>SUM(D$2:D10)/SUM(D$2:D$190)</f>
         <v>0.23841043172262588</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.25811651519235695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1281,16 +1334,20 @@
       <c r="D11" s="5">
         <v>185972</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <f>SUM(C$2:C11)/SUM(C$2:C$190)</f>
         <v>0.25259187849882458</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <f>SUM(D$2:D11)/SUM(D$2:D$190)</f>
         <v>0.25622488597990611</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.24940221625891312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1303,16 +1360,20 @@
       <c r="D12" s="5">
         <v>181458</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <f>SUM(C$2:C12)/SUM(C$2:C$190)</f>
         <v>0.26517496236913762</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <f>SUM(D$2:D12)/SUM(D$2:D$190)</f>
         <v>0.27360693941062447</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.24334860816633611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1325,16 +1386,20 @@
       <c r="D13" s="5">
         <v>180883</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <f>SUM(C$2:C13)/SUM(C$2:C$190)</f>
         <v>0.2804852267153754</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <f>SUM(D$2:D13)/SUM(D$2:D$190)</f>
         <v>0.29093391298417109</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.24257749060912923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1347,16 +1412,20 @@
       <c r="D14" s="5">
         <v>177259</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <f>SUM(C$2:C14)/SUM(C$2:C$190)</f>
         <v>0.29597307490655705</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <f>SUM(D$2:D14)/SUM(D$2:D$190)</f>
         <v>0.3079137397709521</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23771743838770718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1369,16 +1438,21 @@
       <c r="D15" s="9">
         <v>151581</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="11"/>
+      <c r="F15" s="10">
         <f>SUM(C$2:C15)/SUM(C$2:C$190)</f>
         <v>0.31072521859725677</v>
       </c>
-      <c r="F15" s="10">
+      <c r="G15" s="10">
         <f>SUM(D$2:D15)/SUM(D$2:D$190)</f>
         <v>0.3224338438230287</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2032813398938674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1391,16 +1465,20 @@
       <c r="D16" s="5">
         <v>150456</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <f>SUM(C$2:C16)/SUM(C$2:C$190)</f>
         <v>0.32220474571684676</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <f>SUM(D$2:D16)/SUM(D$2:D$190)</f>
         <v>0.33684618293716068</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.20177263162976702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1413,16 +1491,20 @@
       <c r="D17" s="5">
         <v>147829</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="6">
         <f>SUM(C$2:C17)/SUM(C$2:C$190)</f>
         <v>0.33196340081519443</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <f>SUM(D$2:D17)/SUM(D$2:D$190)</f>
         <v>0.35100687894730992</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19824963019884104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1435,16 +1517,20 @@
       <c r="D18" s="5">
         <v>146875</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="6">
         <f>SUM(C$2:C18)/SUM(C$2:C$190)</f>
         <v>0.34756541004955432</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <f>SUM(D$2:D18)/SUM(D$2:D$190)</f>
         <v>0.36507619029008215</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19697024559088391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1457,16 +1543,20 @@
       <c r="D19" s="5">
         <v>143895</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <f>SUM(C$2:C19)/SUM(C$2:C$190)</f>
         <v>0.35522265631606542</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <f>SUM(D$2:D19)/SUM(D$2:D$190)</f>
         <v>0.37886004428612097</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19297384503353354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1479,16 +1569,20 @@
       <c r="D20" s="5">
         <v>143634</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="6">
         <f>SUM(C$2:C20)/SUM(C$2:C$190)</f>
         <v>0.37691325451993168</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <f>SUM(D$2:D20)/SUM(D$2:D$190)</f>
         <v>0.39261889681655671</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19262382471626227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1501,16 +1595,20 @@
       <c r="D21" s="5">
         <v>134250</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <f>SUM(C$2:C21)/SUM(C$2:C$190)</f>
         <v>0.39369915605391786</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <f>SUM(D$2:D21)/SUM(D$2:D$190)</f>
         <v>0.40547884607795015</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18003918618264622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1523,16 +1621,20 @@
       <c r="D22" s="5">
         <v>133778</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="6">
         <f>SUM(C$2:C22)/SUM(C$2:C$190)</f>
         <v>0.41045123209362899</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="6">
         <f>SUM(D$2:D22)/SUM(D$2:D$190)</f>
         <v>0.41829358196093486</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17940619924873033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1545,16 +1647,20 @@
       <c r="D23" s="5">
         <v>133767</v>
       </c>
-      <c r="E23" s="6">
+      <c r="F23" s="6">
         <f>SUM(C$2:C23)/SUM(C$2:C$190)</f>
         <v>0.42275102744938858</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6">
         <f>SUM(D$2:D23)/SUM(D$2:D$190)</f>
         <v>0.4311072641423041</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17939144743459245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1567,16 +1673,20 @@
       <c r="D24" s="5">
         <v>124537</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <f>SUM(C$2:C24)/SUM(C$2:C$190)</f>
         <v>0.43605713125983053</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <f>SUM(D$2:D24)/SUM(D$2:D$190)</f>
         <v>0.44303679487724762</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16701333429890663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1589,16 +1699,20 @@
       <c r="D25" s="5">
         <v>118538</v>
       </c>
-      <c r="E25" s="6">
+      <c r="F25" s="6">
         <f>SUM(C$2:C25)/SUM(C$2:C$190)</f>
         <v>0.45269504625636342</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G25" s="6">
         <f>SUM(D$2:D25)/SUM(D$2:D$190)</f>
         <v>0.4543916750675423</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15896823129771709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1611,16 +1725,20 @@
       <c r="D26" s="5">
         <v>108573</v>
       </c>
-      <c r="E26" s="6">
+      <c r="F26" s="6">
         <f>SUM(C$2:C26)/SUM(C$2:C$190)</f>
         <v>0.46647470698665583</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="6">
         <f>SUM(D$2:D26)/SUM(D$2:D$190)</f>
         <v>0.46479199738528731</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14560442876281898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1633,16 +1751,20 @@
       <c r="D27" s="5">
         <v>108223</v>
       </c>
-      <c r="E27" s="6">
+      <c r="F27" s="6">
         <f>SUM(C$2:C27)/SUM(C$2:C$190)</f>
         <v>0.47738342889035468</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6">
         <f>SUM(D$2:D27)/SUM(D$2:D$190)</f>
         <v>0.47515879283344964</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1451350528584322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1655,16 +1777,20 @@
       <c r="D28" s="5">
         <v>108165</v>
       </c>
-      <c r="E28" s="6">
+      <c r="F28" s="6">
         <f>SUM(C$2:C28)/SUM(C$2:C$190)</f>
         <v>0.48471933296125291</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="6">
         <f>SUM(D$2:D28)/SUM(D$2:D$190)</f>
         <v>0.48552003240036679</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14505727056570525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1677,16 +1803,20 @@
       <c r="D29" s="5">
         <v>106987</v>
       </c>
-      <c r="E29" s="6">
+      <c r="F29" s="6">
         <f>SUM(C$2:C29)/SUM(C$2:C$190)</f>
         <v>0.49808040319989177</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29" s="6">
         <f>SUM(D$2:D29)/SUM(D$2:D$190)</f>
         <v>0.4957684301033739</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14347748537894059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1699,16 +1829,20 @@
       <c r="D30" s="5">
         <v>105247</v>
       </c>
-      <c r="E30" s="6">
+      <c r="F30" s="6">
         <f>SUM(C$2:C30)/SUM(C$2:C$190)</f>
         <v>0.50518375699764917</v>
       </c>
-      <c r="F30" s="6">
+      <c r="G30" s="6">
         <f>SUM(D$2:D30)/SUM(D$2:D$190)</f>
         <v>0.50585015136902667</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14114401659713197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1721,16 +1855,20 @@
       <c r="D31" s="5">
         <v>104057</v>
       </c>
-      <c r="E31" s="6">
+      <c r="F31" s="6">
         <f>SUM(C$2:C31)/SUM(C$2:C$190)</f>
         <v>0.5218385847413195</v>
       </c>
-      <c r="F31" s="6">
+      <c r="G31" s="6">
         <f>SUM(D$2:D31)/SUM(D$2:D$190)</f>
         <v>0.51581788127809791</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1395481385222169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1743,16 +1881,20 @@
       <c r="D32" s="5">
         <v>103926</v>
       </c>
-      <c r="E32" s="6">
+      <c r="F32" s="6">
         <f>SUM(C$2:C32)/SUM(C$2:C$190)</f>
         <v>0.52526764422345118</v>
       </c>
-      <c r="F32" s="6">
+      <c r="G32" s="6">
         <f>SUM(D$2:D32)/SUM(D$2:D$190)</f>
         <v>0.52577306255883971</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13937245782657498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1765,16 +1907,20 @@
       <c r="D33" s="5">
         <v>101113</v>
       </c>
-      <c r="E33" s="6">
+      <c r="F33" s="6">
         <f>SUM(C$2:C33)/SUM(C$2:C$190)</f>
         <v>0.53272193752431207</v>
       </c>
-      <c r="F33" s="6">
+      <c r="G33" s="6">
         <f>SUM(D$2:D33)/SUM(D$2:D$190)</f>
         <v>0.53545878359919186</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13560001662931775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1787,16 +1933,20 @@
       <c r="D34" s="5">
         <v>99633</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F34" s="6">
         <f>SUM(C$2:C34)/SUM(C$2:C$190)</f>
         <v>0.53811287567439581</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="6">
         <f>SUM(D$2:D34)/SUM(D$2:D$190)</f>
         <v>0.54500273387673681</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H34" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13361522709076792</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1809,16 +1959,20 @@
       <c r="D35" s="5">
         <v>97355</v>
       </c>
-      <c r="E35" s="6">
+      <c r="F35" s="6">
         <f>SUM(C$2:C35)/SUM(C$2:C$190)</f>
         <v>0.54149119691511494</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G35" s="6">
         <f>SUM(D$2:D35)/SUM(D$2:D$190)</f>
         <v>0.55432847212882597</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H35" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13056026049021618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1831,16 +1985,20 @@
       <c r="D36" s="5">
         <v>93582</v>
       </c>
-      <c r="E36" s="6">
+      <c r="F36" s="6">
         <f>SUM(C$2:C36)/SUM(C$2:C$190)</f>
         <v>0.54686945050484548</v>
       </c>
-      <c r="F36" s="6">
+      <c r="G36" s="6">
         <f>SUM(D$2:D36)/SUM(D$2:D$190)</f>
         <v>0.56329279072681271</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H36" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12550038824092663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1853,16 +2011,20 @@
       <c r="D37" s="5">
         <v>92628</v>
       </c>
-      <c r="E37" s="6">
+      <c r="F37" s="6">
         <f>SUM(C$2:C37)/SUM(C$2:C$190)</f>
         <v>0.56426843912256663</v>
       </c>
-      <c r="F37" s="6">
+      <c r="G37" s="6">
         <f>SUM(D$2:D37)/SUM(D$2:D$190)</f>
         <v>0.57216572465742244</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H37" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12422100363296951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1875,16 +2037,20 @@
       <c r="D38" s="5">
         <v>88461</v>
       </c>
-      <c r="E38" s="6">
+      <c r="F38" s="6">
         <f>SUM(C$2:C38)/SUM(C$2:C$190)</f>
         <v>0.57310112131513524</v>
       </c>
-      <c r="F38" s="6">
+      <c r="G38" s="6">
         <f>SUM(D$2:D38)/SUM(D$2:D$190)</f>
         <v>0.58063949725788522</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H38" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11863274822274167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1897,16 +2063,20 @@
       <c r="D39" s="5">
         <v>88319</v>
       </c>
-      <c r="E39" s="6">
+      <c r="F39" s="6">
         <f>SUM(C$2:C39)/SUM(C$2:C$190)</f>
         <v>0.58543051397838552</v>
       </c>
-      <c r="F39" s="6">
+      <c r="G39" s="6">
         <f>SUM(D$2:D39)/SUM(D$2:D$190)</f>
         <v>0.58909966752840304</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H39" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11844231571296188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1919,16 +2089,20 @@
       <c r="D40" s="5">
         <v>87809</v>
       </c>
-      <c r="E40" s="6">
+      <c r="F40" s="6">
         <f>SUM(C$2:C40)/SUM(C$2:C$190)</f>
         <v>0.59355708897796267</v>
       </c>
-      <c r="F40" s="6">
+      <c r="G40" s="6">
         <f>SUM(D$2:D40)/SUM(D$2:D$190)</f>
         <v>0.59751098436038586</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H40" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1177583679665697</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1941,16 +2115,20 @@
       <c r="D41" s="5">
         <v>87570</v>
       </c>
-      <c r="E41" s="6">
+      <c r="F41" s="6">
         <f>SUM(C$2:C41)/SUM(C$2:C$190)</f>
         <v>0.60338339506486038</v>
       </c>
-      <c r="F41" s="6">
+      <c r="G41" s="6">
         <f>SUM(D$2:D41)/SUM(D$2:D$190)</f>
         <v>0.60589940712999646</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11743785127757415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1963,16 +2141,20 @@
       <c r="D42" s="5">
         <v>86503</v>
       </c>
-      <c r="E42" s="6">
+      <c r="F42" s="6">
         <f>SUM(C$2:C42)/SUM(C$2:C$190)</f>
         <v>0.60938319211189473</v>
       </c>
-      <c r="F42" s="6">
+      <c r="G42" s="6">
         <f>SUM(D$2:D42)/SUM(D$2:D$190)</f>
         <v>0.61418562084290762</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H42" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11600692530620073</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1985,16 +2167,20 @@
       <c r="D43" s="5">
         <v>86058</v>
       </c>
-      <c r="E43" s="6">
+      <c r="F43" s="6">
         <f>SUM(C$2:C43)/SUM(C$2:C$190)</f>
         <v>0.61455849273597507</v>
       </c>
-      <c r="F43" s="6">
+      <c r="G43" s="6">
         <f>SUM(D$2:D43)/SUM(D$2:D$190)</f>
         <v>0.62242920753592068</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H43" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11541014737062323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2007,16 +2193,20 @@
       <c r="D44" s="5">
         <v>85218</v>
       </c>
-      <c r="E44" s="6">
+      <c r="F44" s="6">
         <f>SUM(C$2:C44)/SUM(C$2:C$190)</f>
         <v>0.62404654388012248</v>
       </c>
-      <c r="F44" s="6">
+      <c r="G44" s="6">
         <f>SUM(D$2:D44)/SUM(D$2:D$190)</f>
         <v>0.63059232974193502</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H44" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11428364520009494</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2029,16 +2219,20 @@
       <c r="D45" s="5">
         <v>84197</v>
       </c>
-      <c r="E45" s="6">
+      <c r="F45" s="6">
         <f>SUM(C$2:C45)/SUM(C$2:C$190)</f>
         <v>0.6270866101780912</v>
       </c>
-      <c r="F45" s="6">
+      <c r="G45" s="6">
         <f>SUM(D$2:D45)/SUM(D$2:D$190)</f>
         <v>0.63865764927982371</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H45" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11291440863329806</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2051,16 +2245,20 @@
       <c r="D46" s="5">
         <v>78459</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F46" s="6">
         <f>SUM(C$2:C46)/SUM(C$2:C$190)</f>
         <v>0.63277352140308152</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G46" s="6">
         <f>SUM(D$2:D46)/SUM(D$2:D$190)</f>
         <v>0.64617331973866665</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H46" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10521932594937983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2073,16 +2271,20 @@
       <c r="D47" s="5">
         <v>75212</v>
       </c>
-      <c r="E47" s="6">
+      <c r="F47" s="6">
         <f>SUM(C$2:C47)/SUM(C$2:C$190)</f>
         <v>0.63732727856985805</v>
       </c>
-      <c r="F47" s="6">
+      <c r="G47" s="6">
         <f>SUM(D$2:D47)/SUM(D$2:D$190)</f>
         <v>0.65337795663883746</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H47" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10086485863068297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2095,16 +2297,20 @@
       <c r="D48" s="5">
         <v>75074</v>
       </c>
-      <c r="E48" s="6">
+      <c r="F48" s="6">
         <f>SUM(C$2:C48)/SUM(C$2:C$190)</f>
         <v>0.64775398718013766</v>
       </c>
-      <c r="F48" s="6">
+      <c r="G48" s="6">
         <f>SUM(D$2:D48)/SUM(D$2:D$190)</f>
         <v>0.660569374373287</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H48" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10067979041695332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2117,16 +2323,20 @@
       <c r="D49" s="5">
         <v>71871</v>
       </c>
-      <c r="E49" s="6">
+      <c r="F49" s="6">
         <f>SUM(C$2:C49)/SUM(C$2:C$190)</f>
         <v>0.65877264194023033</v>
       </c>
-      <c r="F49" s="6">
+      <c r="G49" s="6">
         <f>SUM(D$2:D49)/SUM(D$2:D$190)</f>
         <v>0.66745397335552625</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H49" s="6">
+        <f t="shared" si="0"/>
+        <v>9.6384330354807951E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2139,16 +2349,20 @@
       <c r="D50" s="5">
         <v>71212</v>
       </c>
-      <c r="E50" s="6">
+      <c r="F50" s="6">
         <f>SUM(C$2:C50)/SUM(C$2:C$190)</f>
         <v>0.67140223586517156</v>
       </c>
-      <c r="F50" s="6">
+      <c r="G50" s="6">
         <f>SUM(D$2:D50)/SUM(D$2:D$190)</f>
         <v>0.67427544603189382</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H50" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5500562580548259E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2161,16 +2375,20 @@
       <c r="D51" s="5">
         <v>70490</v>
       </c>
-      <c r="E51" s="6">
+      <c r="F51" s="6">
         <f>SUM(C$2:C51)/SUM(C$2:C$190)</f>
         <v>0.67523720127860365</v>
       </c>
-      <c r="F51" s="6">
+      <c r="G51" s="6">
         <f>SUM(D$2:D51)/SUM(D$2:D$190)</f>
         <v>0.68102775756586498</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H51" s="6">
+        <f t="shared" si="0"/>
+        <v>9.4532307143498945E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2183,16 +2401,20 @@
       <c r="D52" s="5">
         <v>69594</v>
       </c>
-      <c r="E52" s="6">
+      <c r="F52" s="6">
         <f>SUM(C$2:C52)/SUM(C$2:C$190)</f>
         <v>0.68188813909043244</v>
       </c>
-      <c r="F52" s="6">
+      <c r="G52" s="6">
         <f>SUM(D$2:D52)/SUM(D$2:D$190)</f>
         <v>0.68769424031370419</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H52" s="6">
+        <f t="shared" si="0"/>
+        <v>9.3330704828268773E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2205,16 +2427,20 @@
       <c r="D53" s="5">
         <v>69011</v>
       </c>
-      <c r="E53" s="6">
+      <c r="F53" s="6">
         <f>SUM(C$2:C53)/SUM(C$2:C$190)</f>
         <v>0.68559203071354879</v>
       </c>
-      <c r="F53" s="6">
+      <c r="G53" s="6">
         <f>SUM(D$2:D53)/SUM(D$2:D$190)</f>
         <v>0.69430487687592413</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H53" s="6">
+        <f t="shared" si="0"/>
+        <v>9.2548858678961635E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2227,16 +2453,20 @@
       <c r="D54" s="5">
         <v>68418</v>
       </c>
-      <c r="E54" s="6">
+      <c r="F54" s="6">
         <f>SUM(C$2:C54)/SUM(C$2:C$190)</f>
         <v>0.68828961388198284</v>
       </c>
-      <c r="F54" s="6">
+      <c r="G54" s="6">
         <f>SUM(D$2:D54)/SUM(D$2:D$190)</f>
         <v>0.70085870934196526</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H54" s="6">
+        <f t="shared" si="0"/>
+        <v>9.1753601789529168E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2249,16 +2479,20 @@
       <c r="D55" s="5">
         <v>67686</v>
       </c>
-      <c r="E55" s="6">
+      <c r="F55" s="6">
         <f>SUM(C$2:C55)/SUM(C$2:C$190)</f>
         <v>0.70033148984389537</v>
       </c>
-      <c r="F55" s="6">
+      <c r="G55" s="6">
         <f>SUM(D$2:D55)/SUM(D$2:D$190)</f>
         <v>0.70734242275505044</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H55" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0771935612354512E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2271,16 +2505,20 @@
       <c r="D56" s="5">
         <v>65890</v>
       </c>
-      <c r="E56" s="6">
+      <c r="F56" s="6">
         <f>SUM(C$2:C56)/SUM(C$2:C$190)</f>
         <v>0.71025081604004936</v>
       </c>
-      <c r="F56" s="6">
+      <c r="G56" s="6">
         <f>SUM(D$2:D56)/SUM(D$2:D$190)</f>
         <v>0.71365409543164793</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H56" s="6">
+        <f t="shared" si="0"/>
+        <v>8.8363366685844019E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2293,16 +2531,20 @@
       <c r="D57" s="5">
         <v>63559</v>
       </c>
-      <c r="E57" s="6">
+      <c r="F57" s="6">
         <f>SUM(C$2:C57)/SUM(C$2:C$190)</f>
         <v>0.71312175486664298</v>
       </c>
-      <c r="F57" s="6">
+      <c r="G57" s="6">
         <f>SUM(D$2:D57)/SUM(D$2:D$190)</f>
         <v>0.7197424791568241</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H57" s="6">
+        <f t="shared" si="0"/>
+        <v>8.5237323162628026E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2315,16 +2557,20 @@
       <c r="D58" s="5">
         <v>62414</v>
       </c>
-      <c r="E58" s="6">
+      <c r="F58" s="6">
         <f>SUM(C$2:C58)/SUM(C$2:C$190)</f>
         <v>0.7203012160265192</v>
       </c>
-      <c r="F58" s="6">
+      <c r="G58" s="6">
         <f>SUM(D$2:D58)/SUM(D$2:D$190)</f>
         <v>0.72572118212293668</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H58" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3701793418276965E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2337,16 +2583,20 @@
       <c r="D59" s="5">
         <v>59889</v>
       </c>
-      <c r="E59" s="6">
+      <c r="F59" s="6">
         <f>SUM(C$2:C59)/SUM(C$2:C$190)</f>
         <v>0.72349349704872568</v>
       </c>
-      <c r="F59" s="6">
+      <c r="G59" s="6">
         <f>SUM(D$2:D59)/SUM(D$2:D$190)</f>
         <v>0.73145801267277355</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H59" s="6">
+        <f t="shared" si="0"/>
+        <v>8.0315581536629418E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2359,16 +2609,20 @@
       <c r="D60" s="5">
         <v>58415</v>
       </c>
-      <c r="E60" s="6">
+      <c r="F60" s="6">
         <f>SUM(C$2:C60)/SUM(C$2:C$190)</f>
         <v>0.73348893060699849</v>
       </c>
-      <c r="F60" s="6">
+      <c r="G60" s="6">
         <f>SUM(D$2:D60)/SUM(D$2:D$190)</f>
         <v>0.73705364720613886</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H60" s="6">
+        <f t="shared" si="0"/>
+        <v>7.8338838442154779E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2381,16 +2635,20 @@
       <c r="D61" s="5">
         <v>57516</v>
       </c>
-      <c r="E61" s="6">
+      <c r="F61" s="6">
         <f>SUM(C$2:C61)/SUM(C$2:C$190)</f>
         <v>0.73616960102829498</v>
       </c>
-      <c r="F61" s="6">
+      <c r="G61" s="6">
         <f>SUM(D$2:D61)/SUM(D$2:D$190)</f>
         <v>0.74256316558020452</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H61" s="6">
+        <f t="shared" si="0"/>
+        <v>7.7133212904887005E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2403,16 +2661,20 @@
       <c r="D62" s="5">
         <v>56886</v>
       </c>
-      <c r="E62" s="6">
+      <c r="F62" s="6">
         <f>SUM(C$2:C62)/SUM(C$2:C$190)</f>
         <v>0.73860503661609755</v>
       </c>
-      <c r="F62" s="6">
+      <c r="G62" s="6">
         <f>SUM(D$2:D62)/SUM(D$2:D$190)</f>
         <v>0.74801233558902114</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H62" s="6">
+        <f t="shared" si="0"/>
+        <v>7.628833627699079E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2425,16 +2687,20 @@
       <c r="D63" s="5">
         <v>55690</v>
       </c>
-      <c r="E63" s="6">
+      <c r="F63" s="6">
         <f>SUM(C$2:C63)/SUM(C$2:C$190)</f>
         <v>0.7403301368241243</v>
       </c>
-      <c r="F63" s="6">
+      <c r="G63" s="6">
         <f>SUM(D$2:D63)/SUM(D$2:D$190)</f>
         <v>0.7533469394949206</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H63" s="6">
+        <f t="shared" si="0"/>
+        <v>7.4684411758000516E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2447,16 +2713,20 @@
       <c r="D64" s="5">
         <v>54002</v>
       </c>
-      <c r="E64" s="6">
+      <c r="F64" s="6">
         <f>SUM(C$2:C64)/SUM(C$2:C$190)</f>
         <v>0.74465557190454446</v>
       </c>
-      <c r="F64" s="6">
+      <c r="G64" s="6">
         <f>SUM(D$2:D64)/SUM(D$2:D$190)</f>
         <v>0.75851984809837514</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H64" s="6">
+        <f t="shared" si="0"/>
+        <v>7.2420678824843668E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2469,16 +2739,20 @@
       <c r="D65" s="5">
         <v>53882</v>
       </c>
-      <c r="E65" s="6">
+      <c r="F65" s="6">
         <f>SUM(C$2:C65)/SUM(C$2:C$190)</f>
         <v>0.75111201312429177</v>
       </c>
-      <c r="F65" s="6">
+      <c r="G65" s="6">
         <f>SUM(D$2:D65)/SUM(D$2:D$190)</f>
         <v>0.76368126177511553</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H65" s="6">
+        <f t="shared" si="0"/>
+        <v>7.2259749943339627E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2491,16 +2765,20 @@
       <c r="D66" s="5">
         <v>53197</v>
       </c>
-      <c r="E66" s="6">
+      <c r="F66" s="6">
         <f>SUM(C$2:C66)/SUM(C$2:C$190)</f>
         <v>0.75354744871209434</v>
       </c>
-      <c r="F66" s="6">
+      <c r="G66" s="6">
         <f>SUM(D$2:D66)/SUM(D$2:D$190)</f>
         <v>0.76877705857852974</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H66" s="6">
+        <f t="shared" si="0"/>
+        <v>7.1341114244754048E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2513,16 +2791,20 @@
       <c r="D67" s="5">
         <v>52497</v>
       </c>
-      <c r="E67" s="6">
+      <c r="F67" s="6">
         <f>SUM(C$2:C67)/SUM(C$2:C$190)</f>
         <v>0.75710758198454176</v>
       </c>
-      <c r="F67" s="6">
+      <c r="G67" s="6">
         <f>SUM(D$2:D67)/SUM(D$2:D$190)</f>
         <v>0.77380580164277835</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H67" s="6">
+        <f t="shared" ref="H67:H130" si="1">D67/745671</f>
+        <v>7.0402362435980484E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2535,16 +2817,20 @@
       <c r="D68" s="5">
         <v>51111</v>
       </c>
-      <c r="E68" s="6">
+      <c r="F68" s="6">
         <f>SUM(C$2:C68)/SUM(C$2:C$190)</f>
         <v>0.75894261504896243</v>
       </c>
-      <c r="F68" s="6">
+      <c r="G68" s="6">
         <f>SUM(D$2:D68)/SUM(D$2:D$190)</f>
         <v>0.77870177830347909</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H68" s="6">
+        <f t="shared" si="1"/>
+        <v>6.8543633854608807E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2557,16 +2843,20 @@
       <c r="D69" s="5">
         <v>48834</v>
       </c>
-      <c r="E69" s="6">
+      <c r="F69" s="6">
         <f>SUM(C$2:C69)/SUM(C$2:C$190)</f>
         <v>0.76229133898219092</v>
       </c>
-      <c r="F69" s="6">
+      <c r="G69" s="6">
         <f>SUM(D$2:D69)/SUM(D$2:D$190)</f>
         <v>0.78337963872977989</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H69" s="6">
+        <f t="shared" si="1"/>
+        <v>6.5490008328069615E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2579,16 +2869,20 @@
       <c r="D70" s="5">
         <v>47943</v>
       </c>
-      <c r="E70" s="6">
+      <c r="F70" s="6">
         <f>SUM(C$2:C70)/SUM(C$2:C$190)</f>
         <v>0.76809663943714379</v>
       </c>
-      <c r="F70" s="6">
+      <c r="G70" s="6">
         <f>SUM(D$2:D70)/SUM(D$2:D$190)</f>
         <v>0.78797214932522863</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H70" s="6">
+        <f t="shared" si="1"/>
+        <v>6.4295111382902115E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2601,16 +2895,20 @@
       <c r="D71" s="5">
         <v>47321</v>
       </c>
-      <c r="E71" s="6">
+      <c r="F71" s="6">
         <f>SUM(C$2:C71)/SUM(C$2:C$190)</f>
         <v>0.77214301418979481</v>
       </c>
-      <c r="F71" s="6">
+      <c r="G71" s="6">
         <f>SUM(D$2:D71)/SUM(D$2:D$190)</f>
         <v>0.79250507788387592</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H71" s="6">
+        <f t="shared" si="1"/>
+        <v>6.3460963347106158E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2623,16 +2921,20 @@
       <c r="D72" s="5">
         <v>46934</v>
       </c>
-      <c r="E72" s="6">
+      <c r="F72" s="6">
         <f>SUM(C$2:C72)/SUM(C$2:C$190)</f>
         <v>0.77734791212136589</v>
       </c>
-      <c r="F72" s="6">
+      <c r="G72" s="6">
         <f>SUM(D$2:D72)/SUM(D$2:D$190)</f>
         <v>0.79700093530387028</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H72" s="6">
+        <f t="shared" si="1"/>
+        <v>6.2941967704255627E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -2645,16 +2947,21 @@
       <c r="D73" s="9">
         <v>45909</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="11"/>
+      <c r="F73" s="10">
         <f>SUM(C$2:C73)/SUM(C$2:C$190)</f>
         <v>0.78059515957176928</v>
       </c>
-      <c r="F73" s="10">
+      <c r="G73" s="10">
         <f>SUM(D$2:D73)/SUM(D$2:D$190)</f>
         <v>0.8013986068915151</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H73" s="10">
+        <f t="shared" si="1"/>
+        <v>6.1567366841408608E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2667,16 +2974,20 @@
       <c r="D74" s="5">
         <v>45048</v>
       </c>
-      <c r="E74" s="6">
+      <c r="F74" s="6">
         <f>SUM(C$2:C74)/SUM(C$2:C$190)</f>
         <v>0.78256549461329006</v>
       </c>
-      <c r="F74" s="6">
+      <c r="G74" s="6">
         <f>SUM(D$2:D74)/SUM(D$2:D$190)</f>
         <v>0.80571380237998624</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H74" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0412702116617117E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2689,16 +3000,20 @@
       <c r="D75" s="5">
         <v>44768</v>
       </c>
-      <c r="E75" s="6">
+      <c r="F75" s="6">
         <f>SUM(C$2:C75)/SUM(C$2:C$190)</f>
         <v>0.78640891640029087</v>
       </c>
-      <c r="F75" s="6">
+      <c r="G75" s="6">
         <f>SUM(D$2:D75)/SUM(D$2:D$190)</f>
         <v>0.81000217637279115</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H75" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0037201393107684E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2711,16 +3026,20 @@
       <c r="D76" s="5">
         <v>44520</v>
       </c>
-      <c r="E76" s="6">
+      <c r="F76" s="6">
         <f>SUM(C$2:C76)/SUM(C$2:C$190)</f>
         <v>0.79140663317942739</v>
       </c>
-      <c r="F76" s="6">
+      <c r="G76" s="6">
         <f>SUM(D$2:D76)/SUM(D$2:D$190)</f>
         <v>0.81426679418372039</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H76" s="6">
+        <f t="shared" si="1"/>
+        <v>5.9704615037999335E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2733,16 +3052,20 @@
       <c r="D77" s="5">
         <v>44393</v>
       </c>
-      <c r="E77" s="6">
+      <c r="F77" s="6">
         <f>SUM(C$2:C77)/SUM(C$2:C$190)</f>
         <v>0.79391817612934867</v>
       </c>
-      <c r="F77" s="6">
+      <c r="G77" s="6">
         <f>SUM(D$2:D77)/SUM(D$2:D$190)</f>
         <v>0.81851924653054375</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H77" s="6">
+        <f t="shared" si="1"/>
+        <v>5.9534298638407555E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2755,16 +3078,20 @@
       <c r="D78" s="5">
         <v>44162</v>
       </c>
-      <c r="E78" s="6">
+      <c r="F78" s="6">
         <f>SUM(C$2:C78)/SUM(C$2:C$190)</f>
         <v>0.79881441642565998</v>
       </c>
-      <c r="F78" s="6">
+      <c r="G78" s="6">
         <f>SUM(D$2:D78)/SUM(D$2:D$190)</f>
         <v>0.82274957114344249</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H78" s="6">
+        <f t="shared" si="1"/>
+        <v>5.9224510541512274E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2777,16 +3104,20 @@
       <c r="D79" s="5">
         <v>43968</v>
       </c>
-      <c r="E79" s="6">
+      <c r="F79" s="6">
         <f>SUM(C$2:C79)/SUM(C$2:C$190)</f>
         <v>0.80519897847007293</v>
       </c>
-      <c r="F79" s="6">
+      <c r="G79" s="6">
         <f>SUM(D$2:D79)/SUM(D$2:D$190)</f>
         <v>0.82696131229148684</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H79" s="6">
+        <f t="shared" si="1"/>
+        <v>5.8964342183080741E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2799,16 +3130,20 @@
       <c r="D80" s="5">
         <v>39455</v>
       </c>
-      <c r="E80" s="6">
+      <c r="F80" s="6">
         <f>SUM(C$2:C80)/SUM(C$2:C$190)</f>
         <v>0.8070128706005717</v>
       </c>
-      <c r="F80" s="6">
+      <c r="G80" s="6">
         <f>SUM(D$2:D80)/SUM(D$2:D$190)</f>
         <v>0.83074074840402523</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H80" s="6">
+        <f t="shared" si="1"/>
+        <v>5.2912075164516258E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2821,16 +3156,20 @@
       <c r="D81" s="5">
         <v>39241</v>
       </c>
-      <c r="E81" s="6">
+      <c r="F81" s="6">
         <f>SUM(C$2:C81)/SUM(C$2:C$190)</f>
         <v>0.8090931384984863</v>
       </c>
-      <c r="F81" s="6">
+      <c r="G81" s="6">
         <f>SUM(D$2:D81)/SUM(D$2:D$190)</f>
         <v>0.83449968523059015</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H81" s="6">
+        <f t="shared" si="1"/>
+        <v>5.2625085325834049E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2843,16 +3182,20 @@
       <c r="D82" s="5">
         <v>38094</v>
       </c>
-      <c r="E82" s="6">
+      <c r="F82" s="6">
         <f>SUM(C$2:C82)/SUM(C$2:C$190)</f>
         <v>0.81383716407055995</v>
       </c>
-      <c r="F82" s="6">
+      <c r="G82" s="6">
         <f>SUM(D$2:D82)/SUM(D$2:D$190)</f>
         <v>0.83814874971597952</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H82" s="6">
+        <f t="shared" si="1"/>
+        <v>5.108687343345792E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2865,16 +3208,20 @@
       <c r="D83" s="5">
         <v>37283</v>
       </c>
-      <c r="E83" s="6">
+      <c r="F83" s="6">
         <f>SUM(C$2:C83)/SUM(C$2:C$190)</f>
         <v>0.81658125729362219</v>
       </c>
-      <c r="F83" s="6">
+      <c r="G83" s="6">
         <f>SUM(D$2:D83)/SUM(D$2:D$190)</f>
         <v>0.84172012765499282</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H83" s="6">
+        <f t="shared" si="1"/>
+        <v>4.9999262409293109E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2887,16 +3234,20 @@
       <c r="D84" s="5">
         <v>36506</v>
       </c>
-      <c r="E84" s="6">
+      <c r="F84" s="6">
         <f>SUM(C$2:C84)/SUM(C$2:C$190)</f>
         <v>0.81880951172899019</v>
       </c>
-      <c r="F84" s="6">
+      <c r="G84" s="6">
         <f>SUM(D$2:D84)/SUM(D$2:D$190)</f>
         <v>0.84521707594353235</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H84" s="6">
+        <f t="shared" si="1"/>
+        <v>4.8957247901554438E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2909,16 +3260,20 @@
       <c r="D85" s="5">
         <v>36444</v>
       </c>
-      <c r="E85" s="6">
+      <c r="F85" s="6">
         <f>SUM(C$2:C85)/SUM(C$2:C$190)</f>
         <v>0.82269521538383483</v>
       </c>
-      <c r="F85" s="6">
+      <c r="G85" s="6">
         <f>SUM(D$2:D85)/SUM(D$2:D$190)</f>
         <v>0.8487080851866029</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H85" s="6">
+        <f t="shared" si="1"/>
+        <v>4.8874101312777349E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2931,16 +3286,20 @@
       <c r="D86" s="5">
         <v>35737</v>
       </c>
-      <c r="E86" s="6">
+      <c r="F86" s="6">
         <f>SUM(C$2:C86)/SUM(C$2:C$190)</f>
         <v>0.82757031474622422</v>
       </c>
-      <c r="F86" s="6">
+      <c r="G86" s="6">
         <f>SUM(D$2:D86)/SUM(D$2:D$190)</f>
         <v>0.85213137015311624</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H86" s="6">
+        <f t="shared" si="1"/>
+        <v>4.7925961985916039E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2953,16 +3312,20 @@
       <c r="D87" s="5">
         <v>35693</v>
       </c>
-      <c r="E87" s="6">
+      <c r="F87" s="6">
         <f>SUM(C$2:C87)/SUM(C$2:C$190)</f>
         <v>0.83026789791465827</v>
       </c>
-      <c r="F87" s="6">
+      <c r="G87" s="6">
         <f>SUM(D$2:D87)/SUM(D$2:D$190)</f>
         <v>0.85555044031316774</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H87" s="6">
+        <f t="shared" si="1"/>
+        <v>4.7866954729364558E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2975,16 +3338,20 @@
       <c r="D88" s="5">
         <v>34861</v>
       </c>
-      <c r="E88" s="6">
+      <c r="F88" s="6">
         <f>SUM(C$2:C88)/SUM(C$2:C$190)</f>
         <v>0.83371809833071187</v>
       </c>
-      <c r="F88" s="6">
+      <c r="G88" s="6">
         <f>SUM(D$2:D88)/SUM(D$2:D$190)</f>
         <v>0.85888981231466821</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H88" s="6">
+        <f t="shared" si="1"/>
+        <v>4.6751181150936537E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2997,16 +3364,20 @@
       <c r="D89" s="5">
         <v>34853</v>
       </c>
-      <c r="E89" s="6">
+      <c r="F89" s="6">
         <f>SUM(C$2:C89)/SUM(C$2:C$190)</f>
         <v>0.83796742604901309</v>
       </c>
-      <c r="F89" s="6">
+      <c r="G89" s="6">
         <f>SUM(D$2:D89)/SUM(D$2:D$190)</f>
         <v>0.8622284179877211</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H89" s="6">
+        <f t="shared" si="1"/>
+        <v>4.6740452558836271E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3019,16 +3390,20 @@
       <c r="D90" s="5">
         <v>34646</v>
       </c>
-      <c r="E90" s="6">
+      <c r="F90" s="6">
         <f>SUM(C$2:C90)/SUM(C$2:C$190)</f>
         <v>0.83954876790637101</v>
       </c>
-      <c r="F90" s="6">
+      <c r="G90" s="6">
         <f>SUM(D$2:D90)/SUM(D$2:D$190)</f>
         <v>0.86554719491219212</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H90" s="6">
+        <f t="shared" si="1"/>
+        <v>4.6462850238241801E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3041,16 +3416,20 @@
       <c r="D91" s="5">
         <v>34608</v>
       </c>
-      <c r="E91" s="6">
+      <c r="F91" s="6">
         <f>SUM(C$2:C91)/SUM(C$2:C$190)</f>
         <v>0.84515534358245814</v>
       </c>
-      <c r="F91" s="6">
+      <c r="G91" s="6">
         <f>SUM(D$2:D91)/SUM(D$2:D$190)</f>
         <v>0.86886233177653704</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H91" s="6">
+        <f t="shared" si="1"/>
+        <v>4.6411889425765518E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3063,16 +3442,20 @@
       <c r="D92" s="5">
         <v>34541</v>
       </c>
-      <c r="E92" s="6">
+      <c r="F92" s="6">
         <f>SUM(C$2:C92)/SUM(C$2:C$190)</f>
         <v>0.84841527559321461</v>
       </c>
-      <c r="F92" s="6">
+      <c r="G92" s="6">
         <f>SUM(D$2:D92)/SUM(D$2:D$190)</f>
         <v>0.87217105064013334</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H92" s="6">
+        <f t="shared" si="1"/>
+        <v>4.6322037466925765E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3085,16 +3468,20 @@
       <c r="D93" s="5">
         <v>32666</v>
       </c>
-      <c r="E93" s="6">
+      <c r="F93" s="6">
         <f>SUM(C$2:C93)/SUM(C$2:C$190)</f>
         <v>0.85235171748947181</v>
       </c>
-      <c r="F93" s="6">
+      <c r="G93" s="6">
         <f>SUM(D$2:D93)/SUM(D$2:D$190)</f>
         <v>0.87530016127382182</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H93" s="6">
+        <f t="shared" si="1"/>
+        <v>4.3807523693425117E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3107,16 +3494,20 @@
       <c r="D94" s="5">
         <v>31722</v>
       </c>
-      <c r="E94" s="6">
+      <c r="F94" s="6">
         <f>SUM(C$2:C94)/SUM(C$2:C$190)</f>
         <v>0.85701540751264227</v>
       </c>
-      <c r="F94" s="6">
+      <c r="G94" s="6">
         <f>SUM(D$2:D94)/SUM(D$2:D$190)</f>
         <v>0.87833884515069272</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H94" s="6">
+        <f t="shared" si="1"/>
+        <v>4.2541549825593328E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3129,16 +3520,20 @@
       <c r="D95" s="5">
         <v>31662</v>
       </c>
-      <c r="E95" s="6">
+      <c r="F95" s="6">
         <f>SUM(C$2:C95)/SUM(C$2:C$190)</f>
         <v>0.86079963468466181</v>
       </c>
-      <c r="F95" s="6">
+      <c r="G95" s="6">
         <f>SUM(D$2:D95)/SUM(D$2:D$190)</f>
         <v>0.88137178156420659</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H95" s="6">
+        <f t="shared" si="1"/>
+        <v>4.2461085384841307E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3151,16 +3546,20 @@
       <c r="D96" s="5">
         <v>30976</v>
       </c>
-      <c r="E96" s="6">
+      <c r="F96" s="6">
         <f>SUM(C$2:C96)/SUM(C$2:C$190)</f>
         <v>0.86252473489268866</v>
       </c>
-      <c r="F96" s="6">
+      <c r="G96" s="6">
         <f>SUM(D$2:D96)/SUM(D$2:D$190)</f>
         <v>0.88433900531333831</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H96" s="6">
+        <f t="shared" si="1"/>
+        <v>4.1541108612243201E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3173,16 +3572,20 @@
       <c r="D97" s="5">
         <v>30757</v>
       </c>
-      <c r="E97" s="6">
+      <c r="F97" s="6">
         <f>SUM(C$2:C97)/SUM(C$2:C$190)</f>
         <v>0.86706157931232775</v>
       </c>
-      <c r="F97" s="6">
+      <c r="G97" s="6">
         <f>SUM(D$2:D97)/SUM(D$2:D$190)</f>
         <v>0.88728525082121668</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H97" s="6">
+        <f t="shared" si="1"/>
+        <v>4.1247413403498329E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3195,16 +3598,20 @@
       <c r="D98" s="5">
         <v>30434</v>
       </c>
-      <c r="E98" s="6">
+      <c r="F98" s="6">
         <f>SUM(C$2:C98)/SUM(C$2:C$190)</f>
         <v>0.87150963180949481</v>
       </c>
-      <c r="F98" s="6">
+      <c r="G98" s="6">
         <f>SUM(D$2:D98)/SUM(D$2:D$190)</f>
         <v>0.89020055581802304</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H98" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0814246497449948E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3217,16 +3624,20 @@
       <c r="D99" s="5">
         <v>30321</v>
       </c>
-      <c r="E99" s="6">
+      <c r="F99" s="6">
         <f>SUM(C$2:C99)/SUM(C$2:C$190)</f>
         <v>0.87323473201752155</v>
       </c>
-      <c r="F99" s="6">
+      <c r="G99" s="6">
         <f>SUM(D$2:D99)/SUM(D$2:D$190)</f>
         <v>0.89310503642550698</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H99" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0662705134033639E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3239,16 +3650,20 @@
       <c r="D100" s="5">
         <v>29292</v>
       </c>
-      <c r="E100" s="6">
+      <c r="F100" s="6">
         <f>SUM(C$2:C100)/SUM(C$2:C$190)</f>
         <v>0.87707815380452248</v>
       </c>
-      <c r="F100" s="6">
+      <c r="G100" s="6">
         <f>SUM(D$2:D100)/SUM(D$2:D$190)</f>
         <v>0.89591094803641746</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H100" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9282739975136489E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3261,16 +3676,20 @@
       <c r="D101" s="5">
         <v>29167</v>
       </c>
-      <c r="E101" s="6">
+      <c r="F101" s="6">
         <f>SUM(C$2:C101)/SUM(C$2:C$190)</f>
         <v>0.88078627361442319</v>
       </c>
-      <c r="F101" s="6">
+      <c r="G101" s="6">
         <f>SUM(D$2:D101)/SUM(D$2:D$190)</f>
         <v>0.89870488576533414</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H101" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9115105723569778E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3283,16 +3702,20 @@
       <c r="D102" s="5">
         <v>28753</v>
       </c>
-      <c r="E102" s="6">
+      <c r="F102" s="6">
         <f>SUM(C$2:C102)/SUM(C$2:C$190)</f>
         <v>0.88163613915808348</v>
       </c>
-      <c r="F102" s="6">
+      <c r="G102" s="6">
         <f>SUM(D$2:D102)/SUM(D$2:D$190)</f>
         <v>0.9014591659970872</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H102" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8559901082380839E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3305,16 +3728,20 @@
       <c r="D103" s="5">
         <v>27971</v>
       </c>
-      <c r="E103" s="6">
+      <c r="F103" s="6">
         <f>SUM(C$2:C103)/SUM(C$2:C$190)</f>
         <v>0.88521318517766845</v>
       </c>
-      <c r="F103" s="6">
+      <c r="G103" s="6">
         <f>SUM(D$2:D103)/SUM(D$2:D$190)</f>
         <v>0.90413853762308671</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H103" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7511181204579497E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3327,16 +3754,20 @@
       <c r="D104" s="5">
         <v>27909</v>
       </c>
-      <c r="E104" s="6">
+      <c r="F104" s="6">
         <f>SUM(C$2:C104)/SUM(C$2:C$190)</f>
         <v>0.8918007001877315</v>
       </c>
-      <c r="F104" s="6">
+      <c r="G104" s="6">
         <f>SUM(D$2:D104)/SUM(D$2:D$190)</f>
         <v>0.90681197020361726</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H104" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7428034615802415E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3349,16 +3780,20 @@
       <c r="D105" s="5">
         <v>27752</v>
       </c>
-      <c r="E105" s="6">
+      <c r="F105" s="6">
         <f>SUM(C$2:C105)/SUM(C$2:C$190)</f>
         <v>0.89333553199046123</v>
       </c>
-      <c r="F105" s="6">
+      <c r="G105" s="6">
         <f>SUM(D$2:D105)/SUM(D$2:D$190)</f>
         <v>0.90947036358836364</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H105" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7217485995834625E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3371,16 +3806,20 @@
       <c r="D106" s="5">
         <v>27332</v>
       </c>
-      <c r="E106" s="6">
+      <c r="F106" s="6">
         <f>SUM(C$2:C106)/SUM(C$2:C$190)</f>
         <v>0.89557224279939796</v>
       </c>
-      <c r="F106" s="6">
+      <c r="G106" s="6">
         <f>SUM(D$2:D106)/SUM(D$2:D$190)</f>
         <v>0.91208852472961055</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H106" s="6">
+        <f t="shared" si="1"/>
+        <v>3.6654234910570481E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3393,16 +3832,20 @@
       <c r="D107" s="5">
         <v>27157</v>
       </c>
-      <c r="E107" s="6">
+      <c r="F107" s="6">
         <f>SUM(C$2:C107)/SUM(C$2:C$190)</f>
         <v>0.89681532971400546</v>
       </c>
-      <c r="F107" s="6">
+      <c r="G107" s="6">
         <f>SUM(D$2:D107)/SUM(D$2:D$190)</f>
         <v>0.91468992243606617</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H107" s="6">
+        <f t="shared" si="1"/>
+        <v>3.6419546958377083E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3415,16 +3858,20 @@
       <c r="D108" s="5">
         <v>26360</v>
       </c>
-      <c r="E108" s="6">
+      <c r="F108" s="6">
         <f>SUM(C$2:C108)/SUM(C$2:C$190)</f>
         <v>0.9001809663943714</v>
       </c>
-      <c r="F108" s="6">
+      <c r="G108" s="6">
         <f>SUM(D$2:D108)/SUM(D$2:D$190)</f>
         <v>0.91721497467092894</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H108" s="6">
+        <f t="shared" si="1"/>
+        <v>3.5350710970387743E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3437,16 +3884,20 @@
       <c r="D109" s="5">
         <v>25962</v>
       </c>
-      <c r="E109" s="6">
+      <c r="F109" s="6">
         <f>SUM(C$2:C109)/SUM(C$2:C$190)</f>
         <v>0.90126338221117253</v>
       </c>
-      <c r="F109" s="6">
+      <c r="G109" s="6">
         <f>SUM(D$2:D109)/SUM(D$2:D$190)</f>
         <v>0.91970190206552338</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H109" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4816963513399343E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3459,16 +3910,20 @@
       <c r="D110" s="5">
         <v>25688</v>
       </c>
-      <c r="E110" s="6">
+      <c r="F110" s="6">
         <f>SUM(C$2:C110)/SUM(C$2:C$190)</f>
         <v>0.90424002570737561</v>
       </c>
-      <c r="F110" s="6">
+      <c r="G110" s="6">
         <f>SUM(D$2:D110)/SUM(D$2:D$190)</f>
         <v>0.92216258271078722</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H110" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4449509233965114E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3481,16 +3936,20 @@
       <c r="D111" s="5">
         <v>24798</v>
       </c>
-      <c r="E111" s="6">
+      <c r="F111" s="6">
         <f>SUM(C$2:C111)/SUM(C$2:C$190)</f>
         <v>0.91024827912797879</v>
       </c>
-      <c r="F111" s="6">
+      <c r="G111" s="6">
         <f>SUM(D$2:D111)/SUM(D$2:D$190)</f>
         <v>0.92453800931625496</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H111" s="6">
+        <f t="shared" si="1"/>
+        <v>3.3255953362810141E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3503,16 +3962,20 @@
       <c r="D112" s="5">
         <v>24290</v>
       </c>
-      <c r="E112" s="6">
+      <c r="F112" s="6">
         <f>SUM(C$2:C112)/SUM(C$2:C$190)</f>
         <v>0.9153474723899403</v>
       </c>
-      <c r="F112" s="6">
+      <c r="G112" s="6">
         <f>SUM(D$2:D112)/SUM(D$2:D$190)</f>
         <v>0.92686477406529966</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H112" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2574687764443035E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3525,16 +3988,20 @@
       <c r="D113" s="5">
         <v>23709</v>
       </c>
-      <c r="E113" s="6">
+      <c r="F113" s="6">
         <f>SUM(C$2:C113)/SUM(C$2:C$190)</f>
         <v>0.91875539093815006</v>
       </c>
-      <c r="F113" s="6">
+      <c r="G113" s="6">
         <f>SUM(D$2:D113)/SUM(D$2:D$190)</f>
         <v>0.92913588421083693</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H113" s="6">
+        <f t="shared" si="1"/>
+        <v>3.1795523763160964E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3547,16 +4014,20 @@
       <c r="D114" s="5">
         <v>23496</v>
       </c>
-      <c r="E114" s="6">
+      <c r="F114" s="6">
         <f>SUM(C$2:C114)/SUM(C$2:C$190)</f>
         <v>0.92129230300877774</v>
       </c>
-      <c r="F114" s="6">
+      <c r="G114" s="6">
         <f>SUM(D$2:D114)/SUM(D$2:D$190)</f>
         <v>0.93138659086145659</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H114" s="6">
+        <f t="shared" si="1"/>
+        <v>3.150987499849129E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3569,16 +4040,20 @@
       <c r="D115" s="5">
         <v>22471</v>
       </c>
-      <c r="E115" s="6">
+      <c r="F115" s="6">
         <f>SUM(C$2:C115)/SUM(C$2:C$190)</f>
         <v>0.92440002029529655</v>
       </c>
-      <c r="F115" s="6">
+      <c r="G115" s="6">
         <f>SUM(D$2:D115)/SUM(D$2:D$190)</f>
         <v>0.93353911167972681</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H115" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0135274135644274E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3591,16 +4066,20 @@
       <c r="D116" s="5">
         <v>22107</v>
       </c>
-      <c r="E116" s="6">
+      <c r="F116" s="6">
         <f>SUM(C$2:C116)/SUM(C$2:C$190)</f>
         <v>0.92765995230605303</v>
       </c>
-      <c r="F116" s="6">
+      <c r="G116" s="6">
         <f>SUM(D$2:D116)/SUM(D$2:D$190)</f>
         <v>0.93565676455363089</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H116" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9647123195082014E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3613,16 +4092,20 @@
       <c r="D117" s="5">
         <v>22105</v>
       </c>
-      <c r="E117" s="6">
+      <c r="F117" s="6">
         <f>SUM(C$2:C117)/SUM(C$2:C$190)</f>
         <v>0.92900028751670138</v>
       </c>
-      <c r="F117" s="6">
+      <c r="G117" s="6">
         <f>SUM(D$2:D117)/SUM(D$2:D$190)</f>
         <v>0.93777422584542314</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H117" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9644441047056946E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3635,16 +4118,20 @@
       <c r="D118" s="5">
         <v>21348</v>
       </c>
-      <c r="E118" s="6">
+      <c r="F118" s="6">
         <f>SUM(C$2:C118)/SUM(C$2:C$190)</f>
         <v>0.92991780404891167</v>
       </c>
-      <c r="F118" s="6">
+      <c r="G118" s="6">
         <f>SUM(D$2:D118)/SUM(D$2:D$190)</f>
         <v>0.93981917330786058</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H118" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8629248019568954E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3657,16 +4144,20 @@
       <c r="D119" s="5">
         <v>20701</v>
       </c>
-      <c r="E119" s="6">
+      <c r="F119" s="6">
         <f>SUM(C$2:C119)/SUM(C$2:C$190)</f>
         <v>0.93114397821638173</v>
       </c>
-      <c r="F119" s="6">
+      <c r="G119" s="6">
         <f>SUM(D$2:D119)/SUM(D$2:D$190)</f>
         <v>0.94180214395709783</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H119" s="6">
+        <f t="shared" si="1"/>
+        <v>2.7761573133459661E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3679,16 +4170,20 @@
       <c r="D120" s="5">
         <v>19940</v>
       </c>
-      <c r="E120" s="6">
+      <c r="F120" s="6">
         <f>SUM(C$2:C120)/SUM(C$2:C$190)</f>
         <v>0.93278028650193656</v>
       </c>
-      <c r="F120" s="6">
+      <c r="G120" s="6">
         <f>SUM(D$2:D120)/SUM(D$2:D$190)</f>
         <v>0.94371221761275659</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H120" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6741015809921533E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3701,16 +4196,20 @@
       <c r="D121" s="5">
         <v>19916</v>
       </c>
-      <c r="E121" s="6">
+      <c r="F121" s="6">
         <f>SUM(C$2:C121)/SUM(C$2:C$190)</f>
         <v>0.93787525157711371</v>
       </c>
-      <c r="F121" s="6">
+      <c r="G121" s="6">
         <f>SUM(D$2:D121)/SUM(D$2:D$190)</f>
         <v>0.94561999228307259</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H121" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6708830033620727E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3723,16 +4222,20 @@
       <c r="D122" s="5">
         <v>19884</v>
       </c>
-      <c r="E122" s="6">
+      <c r="F122" s="6">
         <f>SUM(C$2:C122)/SUM(C$2:C$190)</f>
         <v>0.94072504946978541</v>
       </c>
-      <c r="F122" s="6">
+      <c r="G122" s="6">
         <f>SUM(D$2:D122)/SUM(D$2:D$190)</f>
         <v>0.94752470163959801</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H122" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6665915665219649E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3745,16 +4248,20 @@
       <c r="D123" s="5">
         <v>19513</v>
       </c>
-      <c r="E123" s="6">
+      <c r="F123" s="6">
         <f>SUM(C$2:C123)/SUM(C$2:C$190)</f>
         <v>0.94205692830686494</v>
       </c>
-      <c r="F123" s="6">
+      <c r="G123" s="6">
         <f>SUM(D$2:D123)/SUM(D$2:D$190)</f>
         <v>0.9493938725143658</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H123" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6168377206569653E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3767,16 +4274,20 @@
       <c r="D124" s="5">
         <v>18642</v>
       </c>
-      <c r="E124" s="6">
+      <c r="F124" s="6">
         <f>SUM(C$2:C124)/SUM(C$2:C$190)</f>
         <v>0.94515196103303056</v>
       </c>
-      <c r="F124" s="6">
+      <c r="G124" s="6">
         <f>SUM(D$2:D124)/SUM(D$2:D$190)</f>
         <v>0.95117960937940038</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H124" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5000301741652822E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3789,16 +4300,20 @@
       <c r="D125" s="5">
         <v>18062</v>
       </c>
-      <c r="E125" s="6">
+      <c r="F125" s="6">
         <f>SUM(C$2:C125)/SUM(C$2:C$190)</f>
         <v>0.94616249767449723</v>
       </c>
-      <c r="F125" s="6">
+      <c r="G125" s="6">
         <f>SUM(D$2:D125)/SUM(D$2:D$190)</f>
         <v>0.95290978743198351</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H125" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4222478814383289E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3811,16 +4326,20 @@
       <c r="D126" s="5">
         <v>17146</v>
       </c>
-      <c r="E126" s="6">
+      <c r="F126" s="6">
         <f>SUM(C$2:C126)/SUM(C$2:C$190)</f>
         <v>0.94772269859793323</v>
       </c>
-      <c r="F126" s="6">
+      <c r="G126" s="6">
         <f>SUM(D$2:D126)/SUM(D$2:D$190)</f>
         <v>0.95455222087731584</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H126" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2994055018902438E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3833,16 +4352,20 @@
       <c r="D127" s="5">
         <v>16505</v>
       </c>
-      <c r="E127" s="6">
+      <c r="F127" s="6">
         <f>SUM(C$2:C127)/SUM(C$2:C$190)</f>
         <v>0.94905457743501276</v>
       </c>
-      <c r="F127" s="6">
+      <c r="G127" s="6">
         <f>SUM(D$2:D127)/SUM(D$2:D$190)</f>
         <v>0.95613325225578361</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H127" s="6">
+        <f t="shared" si="1"/>
+        <v>2.213442657686835E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3855,16 +4378,20 @@
       <c r="D128" s="5">
         <v>15882</v>
       </c>
-      <c r="E128" s="6">
+      <c r="F128" s="6">
         <f>SUM(C$2:C128)/SUM(C$2:C$190)</f>
         <v>0.95176907335058436</v>
       </c>
-      <c r="F128" s="6">
+      <c r="G128" s="6">
         <f>SUM(D$2:D128)/SUM(D$2:D$190)</f>
         <v>0.95765460580639405</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H128" s="6">
+        <f t="shared" si="1"/>
+        <v>2.129893746705987E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3877,16 +4404,20 @@
       <c r="D129" s="5">
         <v>15662</v>
       </c>
-      <c r="E129" s="6">
+      <c r="F129" s="6">
         <f>SUM(C$2:C129)/SUM(C$2:C$190)</f>
         <v>0.95299101933126995</v>
       </c>
-      <c r="F129" s="6">
+      <c r="G129" s="6">
         <f>SUM(D$2:D129)/SUM(D$2:D$190)</f>
         <v>0.95915488532469528</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H129" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1003901184302461E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3899,16 +4430,20 @@
       <c r="D130" s="5">
         <v>15257</v>
       </c>
-      <c r="E130" s="6">
+      <c r="F130" s="6">
         <f>SUM(C$2:C130)/SUM(C$2:C$190)</f>
         <v>0.95532497843624742</v>
       </c>
-      <c r="F130" s="6">
+      <c r="G130" s="6">
         <f>SUM(D$2:D130)/SUM(D$2:D$190)</f>
         <v>0.96061636946533646</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H130" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0460766209226322E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3921,16 +4456,20 @@
       <c r="D131" s="5">
         <v>15010</v>
       </c>
-      <c r="E131" s="6">
+      <c r="F131" s="6">
         <f>SUM(C$2:C131)/SUM(C$2:C$190)</f>
         <v>0.95650464254908929</v>
       </c>
-      <c r="F131" s="6">
+      <c r="G131" s="6">
         <f>SUM(D$2:D131)/SUM(D$2:D$190)</f>
         <v>0.96205419321515784</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H131" s="6">
+        <f t="shared" ref="H131:H190" si="2">D131/745671</f>
+        <v>2.0129520928130501E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3943,16 +4482,20 @@
       <c r="D132" s="5">
         <v>14407</v>
       </c>
-      <c r="E132" s="6">
+      <c r="F132" s="6">
         <f>SUM(C$2:C132)/SUM(C$2:C$190)</f>
         <v>0.95693591760109598</v>
       </c>
-      <c r="F132" s="6">
+      <c r="G132" s="6">
         <f>SUM(D$2:D132)/SUM(D$2:D$190)</f>
         <v>0.96343425495824087</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H132" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9320853298572693E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3965,16 +4508,20 @@
       <c r="D133" s="5">
         <v>14380</v>
       </c>
-      <c r="E133" s="6">
+      <c r="F133" s="6">
         <f>SUM(C$2:C133)/SUM(C$2:C$190)</f>
         <v>0.95754900468483095</v>
       </c>
-      <c r="F133" s="6">
+      <c r="G133" s="6">
         <f>SUM(D$2:D133)/SUM(D$2:D$190)</f>
         <v>0.9648117303428132</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H133" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9284644300234285E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3987,16 +4534,20 @@
       <c r="D134" s="5">
         <v>13979</v>
       </c>
-      <c r="E134" s="6">
+      <c r="F134" s="6">
         <f>SUM(C$2:C134)/SUM(C$2:C$190)</f>
         <v>0.95872866879767282</v>
       </c>
-      <c r="F134" s="6">
+      <c r="G134" s="6">
         <f>SUM(D$2:D134)/SUM(D$2:D$190)</f>
         <v>0.96615079351394928</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H134" s="6">
+        <f t="shared" si="2"/>
+        <v>1.874687362120828E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4009,16 +4560,20 @@
       <c r="D135" s="5">
         <v>13856</v>
       </c>
-      <c r="E135" s="6">
+      <c r="F135" s="6">
         <f>SUM(C$2:C135)/SUM(C$2:C$190)</f>
         <v>0.95959121890168619</v>
       </c>
-      <c r="F135" s="6">
+      <c r="G135" s="6">
         <f>SUM(D$2:D135)/SUM(D$2:D$190)</f>
         <v>0.96747807438520339</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H135" s="6">
+        <f t="shared" si="2"/>
+        <v>1.858192151766664E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4031,16 +4586,20 @@
       <c r="D136" s="5">
         <v>13063</v>
       </c>
-      <c r="E136" s="6">
+      <c r="F136" s="6">
         <f>SUM(C$2:C136)/SUM(C$2:C$190)</f>
         <v>0.96018739323828373</v>
       </c>
-      <c r="F136" s="6">
+      <c r="G136" s="6">
         <f>SUM(D$2:D136)/SUM(D$2:D$190)</f>
         <v>0.96872939294908855</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H136" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7518449825727433E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4053,16 +4612,20 @@
       <c r="D137" s="5">
         <v>12735</v>
       </c>
-      <c r="E137" s="6">
+      <c r="F137" s="6">
         <f>SUM(C$2:C137)/SUM(C$2:C$190)</f>
         <v>0.96231417119082652</v>
       </c>
-      <c r="F137" s="6">
+      <c r="G137" s="6">
         <f>SUM(D$2:D137)/SUM(D$2:D$190)</f>
         <v>0.96994929204662184</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H137" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7078577549616385E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4075,16 +4638,20 @@
       <c r="D138" s="5">
         <v>12658</v>
       </c>
-      <c r="E138" s="6">
+      <c r="F138" s="6">
         <f>SUM(C$2:C138)/SUM(C$2:C$190)</f>
         <v>0.96425490892485666</v>
       </c>
-      <c r="F138" s="6">
+      <c r="G138" s="6">
         <f>SUM(D$2:D138)/SUM(D$2:D$190)</f>
         <v>0.97116181523284695</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H138" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6975314850651294E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4097,16 +4664,20 @@
       <c r="D139" s="5">
         <v>12296</v>
       </c>
-      <c r="E139" s="6">
+      <c r="F139" s="6">
         <f>SUM(C$2:C139)/SUM(C$2:C$190)</f>
         <v>0.96596732457253032</v>
       </c>
-      <c r="F139" s="6">
+      <c r="G139" s="6">
         <f>SUM(D$2:D139)/SUM(D$2:D$190)</f>
         <v>0.97233966205681788</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H139" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6489846058114103E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4119,16 +4690,20 @@
       <c r="D140" s="5">
         <v>12194</v>
       </c>
-      <c r="E140" s="6">
+      <c r="F140" s="6">
         <f>SUM(C$2:C140)/SUM(C$2:C$190)</f>
         <v>0.96646625061308711</v>
       </c>
-      <c r="F140" s="6">
+      <c r="G140" s="6">
         <f>SUM(D$2:D140)/SUM(D$2:D$190)</f>
         <v>0.97350773819308178</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H140" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6353056508835666E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4141,16 +4716,20 @@
       <c r="D141" s="5">
         <v>11404</v>
       </c>
-      <c r="E141" s="6">
+      <c r="F141" s="6">
         <f>SUM(C$2:C141)/SUM(C$2:C$190)</f>
         <v>0.96764591472592898</v>
       </c>
-      <c r="F141" s="6">
+      <c r="G141" s="6">
         <f>SUM(D$2:D141)/SUM(D$2:D$190)</f>
         <v>0.97460013939514467</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H141" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5293608038934061E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4163,16 +4742,20 @@
       <c r="D142" s="5">
         <v>11398</v>
       </c>
-      <c r="E142" s="6">
+      <c r="F142" s="6">
         <f>SUM(C$2:C142)/SUM(C$2:C$190)</f>
         <v>0.96868182048810192</v>
       </c>
-      <c r="F142" s="6">
+      <c r="G142" s="6">
         <f>SUM(D$2:D142)/SUM(D$2:D$190)</f>
         <v>0.9756919658508717</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H142" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5285561594858858E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4185,16 +4768,20 @@
       <c r="D143" s="5">
         <v>11362</v>
       </c>
-      <c r="E143" s="6">
+      <c r="F143" s="6">
         <f>SUM(C$2:C143)/SUM(C$2:C$190)</f>
         <v>0.96910041097975541</v>
       </c>
-      <c r="F143" s="6">
+      <c r="G143" s="6">
         <f>SUM(D$2:D143)/SUM(D$2:D$190)</f>
         <v>0.97678034382858459</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H143" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5237282930407646E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4207,16 +4794,20 @@
       <c r="D144" s="5">
         <v>11323</v>
       </c>
-      <c r="E144" s="6">
+      <c r="F144" s="6">
         <f>SUM(C$2:C144)/SUM(C$2:C$190)</f>
         <v>0.96964161888815603</v>
       </c>
-      <c r="F144" s="6">
+      <c r="G144" s="6">
         <f>SUM(D$2:D144)/SUM(D$2:D$190)</f>
         <v>0.9778649859551154</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H144" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5184981043918832E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4229,16 +4820,20 @@
       <c r="D145" s="5">
         <v>11270</v>
       </c>
-      <c r="E145" s="6">
+      <c r="F145" s="6">
         <f>SUM(C$2:C145)/SUM(C$2:C$190)</f>
         <v>0.97039000794899111</v>
       </c>
-      <c r="F145" s="6">
+      <c r="G145" s="6">
         <f>SUM(D$2:D145)/SUM(D$2:D$190)</f>
         <v>0.9789445511556808</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H145" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5113904121254547E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4251,16 +4846,20 @@
       <c r="D146" s="5">
         <v>10605</v>
       </c>
-      <c r="E146" s="6">
+      <c r="F146" s="6">
         <f>SUM(C$2:C146)/SUM(C$2:C$190)</f>
         <v>0.97115530975696385</v>
       </c>
-      <c r="F146" s="6">
+      <c r="G146" s="6">
         <f>SUM(D$2:D146)/SUM(D$2:D$190)</f>
         <v>0.97996041530403888</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H146" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4222089902919652E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4273,16 +4872,20 @@
       <c r="D147" s="5">
         <v>10271</v>
       </c>
-      <c r="E147" s="6">
+      <c r="F147" s="6">
         <f>SUM(C$2:C147)/SUM(C$2:C$190)</f>
         <v>0.97308759111742515</v>
       </c>
-      <c r="F147" s="6">
+      <c r="G147" s="6">
         <f>SUM(D$2:D147)/SUM(D$2:D$190)</f>
         <v>0.98094428523970945</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H147" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3774171182733403E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4295,16 +4898,20 @@
       <c r="D148" s="5">
         <v>10013</v>
       </c>
-      <c r="E148" s="6">
+      <c r="F148" s="6">
         <f>SUM(C$2:C148)/SUM(C$2:C$190)</f>
         <v>0.97426302704348267</v>
       </c>
-      <c r="F148" s="6">
+      <c r="G148" s="6">
         <f>SUM(D$2:D148)/SUM(D$2:D$190)</f>
         <v>0.98190344108294469</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H148" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3428174087499715E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4317,16 +4924,20 @@
       <c r="D149" s="5">
         <v>9802</v>
       </c>
-      <c r="E149" s="6">
+      <c r="F149" s="6">
         <f>SUM(C$2:C149)/SUM(C$2:C$190)</f>
         <v>0.97620799296429717</v>
       </c>
-      <c r="F149" s="6">
+      <c r="G149" s="6">
         <f>SUM(D$2:D149)/SUM(D$2:D$190)</f>
         <v>0.9828423850133744</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H149" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3145207470855109E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4339,16 +4950,20 @@
       <c r="D150" s="5">
         <v>9450</v>
       </c>
-      <c r="E150" s="6">
+      <c r="F150" s="6">
         <f>SUM(C$2:C150)/SUM(C$2:C$190)</f>
         <v>0.97690987197050416</v>
       </c>
-      <c r="F150" s="6">
+      <c r="G150" s="6">
         <f>SUM(D$2:D150)/SUM(D$2:D$190)</f>
         <v>0.98374761049210935</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H150" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2673149418443254E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4361,16 +4976,20 @@
       <c r="D151" s="5">
         <v>9415</v>
       </c>
-      <c r="E151" s="6">
+      <c r="F151" s="6">
         <f>SUM(C$2:C151)/SUM(C$2:C$190)</f>
         <v>0.9777089992727519</v>
       </c>
-      <c r="F151" s="6">
+      <c r="G151" s="6">
         <f>SUM(D$2:D151)/SUM(D$2:D$190)</f>
         <v>0.98464948328388602</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H151" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2626211828004576E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4383,16 +5002,20 @@
       <c r="D152" s="5">
         <v>9172</v>
       </c>
-      <c r="E152" s="6">
+      <c r="F152" s="6">
         <f>SUM(C$2:C152)/SUM(C$2:C$190)</f>
         <v>0.98053342804471733</v>
       </c>
-      <c r="F152" s="6">
+      <c r="G152" s="6">
         <f>SUM(D$2:D152)/SUM(D$2:D$190)</f>
         <v>0.98552807884906668</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H152" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2300330842958892E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4405,16 +5028,20 @@
       <c r="D153" s="5">
         <v>7851</v>
       </c>
-      <c r="E153" s="6">
+      <c r="F153" s="6">
         <f>SUM(C$2:C153)/SUM(C$2:C$190)</f>
         <v>0.98131564259982751</v>
       </c>
-      <c r="F153" s="6">
+      <c r="G153" s="6">
         <f>SUM(D$2:D153)/SUM(D$2:D$190)</f>
         <v>0.98628013442933626</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H153" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0528772072401904E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4427,16 +5054,20 @@
       <c r="D154" s="5">
         <v>7749</v>
       </c>
-      <c r="E154" s="6">
+      <c r="F154" s="6">
         <f>SUM(C$2:C154)/SUM(C$2:C$190)</f>
         <v>0.98193295787034685</v>
       </c>
-      <c r="F154" s="6">
+      <c r="G154" s="6">
         <f>SUM(D$2:D154)/SUM(D$2:D$190)</f>
         <v>0.98702241932189894</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H154" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0391982523123469E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4449,16 +5080,20 @@
       <c r="D155" s="5">
         <v>7442</v>
       </c>
-      <c r="E155" s="6">
+      <c r="F155" s="6">
         <f>SUM(C$2:C155)/SUM(C$2:C$190)</f>
         <v>0.98300268912679489</v>
       </c>
-      <c r="F155" s="6">
+      <c r="G155" s="6">
         <f>SUM(D$2:D155)/SUM(D$2:D$190)</f>
         <v>0.98773529636028468</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H155" s="6">
+        <f t="shared" si="2"/>
+        <v>9.9802728012756293E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4471,16 +5106,20 @@
       <c r="D156" s="5">
         <v>7406</v>
       </c>
-      <c r="E156" s="6">
+      <c r="F156" s="6">
         <f>SUM(C$2:C156)/SUM(C$2:C$190)</f>
         <v>0.98341705143166402</v>
       </c>
-      <c r="F156" s="6">
+      <c r="G156" s="6">
         <f>SUM(D$2:D156)/SUM(D$2:D$190)</f>
         <v>0.98844472492065627</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H156" s="6">
+        <f t="shared" si="2"/>
+        <v>9.9319941368244177E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4493,16 +5132,20 @@
       <c r="D157" s="5">
         <v>6939</v>
       </c>
-      <c r="E157" s="6">
+      <c r="F157" s="6">
         <f>SUM(C$2:C157)/SUM(C$2:C$190)</f>
         <v>0.98411470225108666</v>
       </c>
-      <c r="F157" s="6">
+      <c r="G157" s="6">
         <f>SUM(D$2:D157)/SUM(D$2:D$190)</f>
         <v>0.98910941905789884</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H157" s="6">
+        <f t="shared" si="2"/>
+        <v>9.3057125729711903E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4515,16 +5158,20 @@
       <c r="D158" s="5">
         <v>6891</v>
       </c>
-      <c r="E158" s="6">
+      <c r="F158" s="6">
         <f>SUM(C$2:C158)/SUM(C$2:C$190)</f>
         <v>0.98480389669694046</v>
       </c>
-      <c r="F158" s="6">
+      <c r="G158" s="6">
         <f>SUM(D$2:D158)/SUM(D$2:D$190)</f>
         <v>0.98976951522445566</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H158" s="6">
+        <f t="shared" si="2"/>
+        <v>9.2413410203695725E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4537,16 +5184,20 @@
       <c r="D159" s="5">
         <v>6828</v>
       </c>
-      <c r="E159" s="6">
+      <c r="F159" s="6">
         <f>SUM(C$2:C159)/SUM(C$2:C$190)</f>
         <v>0.98509141339827833</v>
       </c>
-      <c r="F159" s="6">
+      <c r="G159" s="6">
         <f>SUM(D$2:D159)/SUM(D$2:D$190)</f>
         <v>0.99042357655448765</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H159" s="6">
+        <f t="shared" si="2"/>
+        <v>9.1568533575799513E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4559,16 +5210,20 @@
       <c r="D160" s="5">
         <v>6540</v>
       </c>
-      <c r="E160" s="6">
+      <c r="F160" s="6">
         <f>SUM(C$2:C160)/SUM(C$2:C$190)</f>
         <v>0.98640215130143594</v>
       </c>
-      <c r="F160" s="6">
+      <c r="G160" s="6">
         <f>SUM(D$2:D160)/SUM(D$2:D$190)</f>
         <v>0.99105005006040581</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H160" s="6">
+        <f t="shared" si="2"/>
+        <v>8.7706240419702531E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4581,16 +5236,20 @@
       <c r="D161" s="5">
         <v>5997</v>
       </c>
-      <c r="E161" s="6">
+      <c r="F161" s="6">
         <f>SUM(C$2:C161)/SUM(C$2:C$190)</f>
         <v>0.98655436602567359</v>
       </c>
-      <c r="F161" s="6">
+      <c r="G161" s="6">
         <f>SUM(D$2:D161)/SUM(D$2:D$190)</f>
         <v>0.99162450902294275</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H161" s="6">
+        <f t="shared" si="2"/>
+        <v>8.0424208531644659E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4603,16 +5262,20 @@
       <c r="D162" s="5">
         <v>5970</v>
       </c>
-      <c r="E162" s="6">
+      <c r="F162" s="6">
         <f>SUM(C$2:C162)/SUM(C$2:C$190)</f>
         <v>0.98707443300015218</v>
       </c>
-      <c r="F162" s="6">
+      <c r="G162" s="6">
         <f>SUM(D$2:D162)/SUM(D$2:D$190)</f>
         <v>0.99219638162696888</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H162" s="6">
+        <f t="shared" si="2"/>
+        <v>8.0062118548260564E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4625,16 +5288,20 @@
       <c r="D163" s="5">
         <v>5792</v>
       </c>
-      <c r="E163" s="6">
+      <c r="F163" s="6">
         <f>SUM(C$2:C163)/SUM(C$2:C$190)</f>
         <v>0.98770866101780908</v>
       </c>
-      <c r="F163" s="6">
+      <c r="G163" s="6">
         <f>SUM(D$2:D163)/SUM(D$2:D$190)</f>
         <v>0.99275120342303591</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H163" s="6">
+        <f t="shared" si="2"/>
+        <v>7.7675006805950613E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4647,16 +5314,20 @@
       <c r="D164" s="5">
         <v>5467</v>
       </c>
-      <c r="E164" s="6">
+      <c r="F164" s="6">
         <f>SUM(C$2:C164)/SUM(C$2:C$190)</f>
         <v>0.98850778832005681</v>
       </c>
-      <c r="F164" s="6">
+      <c r="G164" s="6">
         <f>SUM(D$2:D164)/SUM(D$2:D$190)</f>
         <v>0.99327489312591888</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H164" s="6">
+        <f t="shared" si="2"/>
+        <v>7.3316516265216165E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4669,16 +5340,20 @@
       <c r="D165" s="5">
         <v>5384</v>
       </c>
-      <c r="E165" s="6">
+      <c r="F165" s="6">
         <f>SUM(C$2:C165)/SUM(C$2:C$190)</f>
         <v>0.98904899622845743</v>
       </c>
-      <c r="F165" s="6">
+      <c r="G165" s="6">
         <f>SUM(D$2:D165)/SUM(D$2:D$190)</f>
         <v>0.99379063217115793</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H165" s="6">
+        <f t="shared" si="2"/>
+        <v>7.2203424834813212E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4691,16 +5366,20 @@
       <c r="D166" s="5">
         <v>5377</v>
       </c>
-      <c r="E166" s="6">
+      <c r="F166" s="6">
         <f>SUM(C$2:C166)/SUM(C$2:C$190)</f>
         <v>0.98952255314830784</v>
       </c>
-      <c r="F166" s="6">
+      <c r="G166" s="6">
         <f>SUM(D$2:D166)/SUM(D$2:D$190)</f>
         <v>0.99430570067900537</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H166" s="6">
+        <f t="shared" si="2"/>
+        <v>7.2109549653935848E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4713,16 +5392,20 @@
       <c r="D167" s="5">
         <v>5345</v>
       </c>
-      <c r="E167" s="6">
+      <c r="F167" s="6">
         <f>SUM(C$2:C167)/SUM(C$2:C$190)</f>
         <v>0.98983966715713634</v>
       </c>
-      <c r="F167" s="6">
+      <c r="G167" s="6">
         <f>SUM(D$2:D167)/SUM(D$2:D$190)</f>
         <v>0.99481770387306234</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H167" s="6">
+        <f t="shared" si="2"/>
+        <v>7.1680405969925072E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4735,16 +5418,20 @@
       <c r="D168" s="5">
         <v>5048</v>
       </c>
-      <c r="E168" s="6">
+      <c r="F168" s="6">
         <f>SUM(C$2:C168)/SUM(C$2:C$190)</f>
         <v>0.9906134253386778</v>
       </c>
-      <c r="F168" s="6">
+      <c r="G168" s="6">
         <f>SUM(D$2:D168)/SUM(D$2:D$190)</f>
         <v>0.99530125712350193</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H168" s="6">
+        <f t="shared" si="2"/>
+        <v>6.7697416152700052E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4757,16 +5444,20 @@
       <c r="D169" s="5">
         <v>4769</v>
       </c>
-      <c r="E169" s="6">
+      <c r="F169" s="6">
         <f>SUM(C$2:C169)/SUM(C$2:C$190)</f>
         <v>0.99120959967527522</v>
       </c>
-      <c r="F169" s="6">
+      <c r="G169" s="6">
         <f>SUM(D$2:D169)/SUM(D$2:D$190)</f>
         <v>0.99575808466933124</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H169" s="6">
+        <f t="shared" si="2"/>
+        <v>6.3955819657731091E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4779,16 +5470,20 @@
       <c r="D170" s="5">
         <v>4753</v>
       </c>
-      <c r="E170" s="6">
+      <c r="F170" s="6">
         <f>SUM(C$2:C170)/SUM(C$2:C$190)</f>
         <v>0.99219053900925125</v>
       </c>
-      <c r="F170" s="6">
+      <c r="G170" s="6">
         <f>SUM(D$2:D170)/SUM(D$2:D$190)</f>
         <v>0.99621337955826528</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H170" s="6">
+        <f t="shared" si="2"/>
+        <v>6.3741247815725698E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4801,16 +5496,20 @@
       <c r="D171" s="5">
         <v>4704</v>
       </c>
-      <c r="E171" s="6">
+      <c r="F171" s="6">
         <f>SUM(C$2:C171)/SUM(C$2:C$190)</f>
         <v>0.99279094153263314</v>
       </c>
-      <c r="F171" s="6">
+      <c r="G171" s="6">
         <f>SUM(D$2:D171)/SUM(D$2:D$190)</f>
         <v>0.99666398068545781</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H171" s="6">
+        <f t="shared" si="2"/>
+        <v>6.3084121549584196E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4823,16 +5522,20 @@
       <c r="D172" s="5">
         <v>4394</v>
       </c>
-      <c r="E172" s="6">
+      <c r="F172" s="6">
         <f>SUM(C$2:C172)/SUM(C$2:C$190)</f>
         <v>0.99383953185515927</v>
       </c>
-      <c r="F172" s="6">
+      <c r="G172" s="6">
         <f>SUM(D$2:D172)/SUM(D$2:D$190)</f>
         <v>0.99708488658530559</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H172" s="6">
+        <f t="shared" si="2"/>
+        <v>5.8926792110729799E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4845,16 +5548,20 @@
       <c r="D173" s="5">
         <v>4183</v>
       </c>
-      <c r="E173" s="6">
+      <c r="F173" s="6">
         <f>SUM(C$2:C173)/SUM(C$2:C$190)</f>
         <v>0.99419892773183149</v>
       </c>
-      <c r="F173" s="6">
+      <c r="G173" s="6">
         <f>SUM(D$2:D173)/SUM(D$2:D$190)</f>
         <v>0.99748558057234771</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H173" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6097125944283739E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4867,16 +5574,20 @@
       <c r="D174" s="5">
         <v>4171</v>
       </c>
-      <c r="E174" s="6">
+      <c r="F174" s="6">
         <f>SUM(C$2:C174)/SUM(C$2:C$190)</f>
         <v>0.99515449794510125</v>
       </c>
-      <c r="F174" s="6">
+      <c r="G174" s="6">
         <f>SUM(D$2:D174)/SUM(D$2:D$190)</f>
         <v>0.99788512506671845</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H174" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5936197062779695E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4889,16 +5600,20 @@
       <c r="D175" s="5">
         <v>3739</v>
       </c>
-      <c r="E175" s="6">
+      <c r="F175" s="6">
         <f>SUM(C$2:C175)/SUM(C$2:C$190)</f>
         <v>0.99634261843151184</v>
       </c>
-      <c r="F175" s="6">
+      <c r="G175" s="6">
         <f>SUM(D$2:D175)/SUM(D$2:D$190)</f>
         <v>0.99824328782491845</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H175" s="6">
+        <f t="shared" si="2"/>
+        <v>5.0142757328634213E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4911,16 +5626,20 @@
       <c r="D176" s="5">
         <v>2928</v>
       </c>
-      <c r="E176" s="6">
+      <c r="F176" s="6">
         <f>SUM(C$2:C176)/SUM(C$2:C$190)</f>
         <v>0.9965963096385746</v>
       </c>
-      <c r="F176" s="6">
+      <c r="G176" s="6">
         <f>SUM(D$2:D176)/SUM(D$2:D$190)</f>
         <v>0.99852376403674237</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H176" s="6">
+        <f t="shared" si="2"/>
+        <v>3.9266647086986083E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4933,16 +5652,20 @@
       <c r="D177" s="5">
         <v>2707</v>
       </c>
-      <c r="E177" s="6">
+      <c r="F177" s="6">
         <f>SUM(C$2:C177)/SUM(C$2:C$190)</f>
         <v>0.99712906117340638</v>
       </c>
-      <c r="F177" s="6">
+      <c r="G177" s="6">
         <f>SUM(D$2:D177)/SUM(D$2:D$190)</f>
         <v>0.9987830704252012</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H177" s="6">
+        <f t="shared" si="2"/>
+        <v>3.6302873519286657E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4955,16 +5678,20 @@
       <c r="D178" s="5">
         <v>1772</v>
       </c>
-      <c r="E178" s="6">
+      <c r="F178" s="6">
         <f>SUM(C$2:C178)/SUM(C$2:C$190)</f>
         <v>0.9972516785901534</v>
       </c>
-      <c r="F178" s="6">
+      <c r="G178" s="6">
         <f>SUM(D$2:D178)/SUM(D$2:D$190)</f>
         <v>0.99895281217634602</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H178" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3763831502096769E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4977,16 +5704,20 @@
       <c r="D179" s="5">
         <v>1661</v>
       </c>
-      <c r="E179" s="6">
+      <c r="F179" s="6">
         <f>SUM(C$2:C179)/SUM(C$2:C$190)</f>
         <v>0.99749268523686307</v>
       </c>
-      <c r="F179" s="6">
+      <c r="G179" s="6">
         <f>SUM(D$2:D179)/SUM(D$2:D$190)</f>
         <v>0.99911192112028024</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H179" s="6">
+        <f t="shared" si="2"/>
+        <v>2.2275239348184387E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4999,16 +5730,20 @@
       <c r="D180" s="5">
         <v>1315</v>
       </c>
-      <c r="E180" s="6">
+      <c r="F180" s="6">
         <f>SUM(C$2:C180)/SUM(C$2:C$190)</f>
         <v>0.99825375885805134</v>
       </c>
-      <c r="F180" s="6">
+      <c r="G180" s="6">
         <f>SUM(D$2:D180)/SUM(D$2:D$190)</f>
         <v>0.99923788635885546</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H180" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7635123264817861E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5021,16 +5756,20 @@
       <c r="D181" s="5">
         <v>1212</v>
       </c>
-      <c r="E181" s="6">
+      <c r="F181" s="6">
         <f>SUM(C$2:C181)/SUM(C$2:C$190)</f>
         <v>0.99877805401931441</v>
       </c>
-      <c r="F181" s="6">
+      <c r="G181" s="6">
         <f>SUM(D$2:D181)/SUM(D$2:D$190)</f>
         <v>0.99935398511866791</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H181" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6253817031908174E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5043,16 +5782,20 @@
       <c r="D182" s="5">
         <v>1201</v>
       </c>
-      <c r="E182" s="6">
+      <c r="F182" s="6">
         <f>SUM(C$2:C182)/SUM(C$2:C$190)</f>
         <v>0.99885416138143324</v>
       </c>
-      <c r="F182" s="6">
+      <c r="G182" s="6">
         <f>SUM(D$2:D182)/SUM(D$2:D$190)</f>
         <v>0.99946903017686473</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H182" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6106298890529469E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5065,16 +5808,20 @@
       <c r="D183" s="5">
         <v>1146</v>
       </c>
-      <c r="E183" s="6">
+      <c r="F183" s="6">
         <f>SUM(C$2:C183)/SUM(C$2:C$190)</f>
         <v>0.99910362440171152</v>
       </c>
-      <c r="F183" s="6">
+      <c r="G183" s="6">
         <f>SUM(D$2:D183)/SUM(D$2:D$190)</f>
         <v>0.9995788067269844</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H183" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5368708183635946E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5087,16 +5834,20 @@
       <c r="D184" s="5">
         <v>1119</v>
       </c>
-      <c r="E184" s="6">
+      <c r="F184" s="6">
         <f>SUM(C$2:C184)/SUM(C$2:C$190)</f>
         <v>0.9991628190166929</v>
       </c>
-      <c r="F184" s="6">
+      <c r="G184" s="6">
         <f>SUM(D$2:D184)/SUM(D$2:D$190)</f>
         <v>0.99968599691859328</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H184" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5006618200251853E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5109,16 +5860,20 @@
       <c r="D185" s="5">
         <v>1019</v>
       </c>
-      <c r="E185" s="6">
+      <c r="F185" s="6">
         <f>SUM(C$2:C185)/SUM(C$2:C$190)</f>
         <v>0.9995137585197964</v>
       </c>
-      <c r="F185" s="6">
+      <c r="G185" s="6">
         <f>SUM(D$2:D185)/SUM(D$2:D$190)</f>
         <v>0.99978360800460719</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H185" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3665544187718176E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5131,16 +5886,20 @@
       <c r="D186" s="5">
         <v>867</v>
       </c>
-      <c r="E186" s="6">
+      <c r="F186" s="6">
         <f>SUM(C$2:C186)/SUM(C$2:C$190)</f>
         <v>0.99965328868368086</v>
       </c>
-      <c r="F186" s="6">
+      <c r="G186" s="6">
         <f>SUM(D$2:D186)/SUM(D$2:D$190)</f>
         <v>0.9998666588501165</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H186" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1627111688666985E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5153,16 +5912,20 @@
       <c r="D187" s="5">
         <v>567</v>
       </c>
-      <c r="E187" s="6">
+      <c r="F187" s="6">
         <f>SUM(C$2:C187)/SUM(C$2:C$190)</f>
         <v>0.99978859066078107</v>
       </c>
-      <c r="F187" s="6">
+      <c r="G187" s="6">
         <f>SUM(D$2:D187)/SUM(D$2:D$190)</f>
         <v>0.99992097237884059</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H187" s="6">
+        <f t="shared" si="2"/>
+        <v>7.6038896510659531E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5175,16 +5938,20 @@
       <c r="D188" s="5">
         <v>422</v>
       </c>
-      <c r="E188" s="6">
+      <c r="F188" s="6">
         <f>SUM(C$2:C188)/SUM(C$2:C$190)</f>
         <v>0.99990275170395926</v>
       </c>
-      <c r="F188" s="6">
+      <c r="G188" s="6">
         <f>SUM(D$2:D188)/SUM(D$2:D$190)</f>
         <v>0.99996139620445179</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H188" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6593323328921197E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5197,16 +5964,20 @@
       <c r="D189" s="5">
         <v>338</v>
       </c>
-      <c r="E189" s="6">
+      <c r="F189" s="6">
         <f>SUM(C$2:C189)/SUM(C$2:C$190)</f>
         <v>0.999966174505725</v>
       </c>
-      <c r="F189" s="6">
+      <c r="G189" s="6">
         <f>SUM(D$2:D189)/SUM(D$2:D$190)</f>
         <v>0.99999377358136321</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H189" s="6">
+        <f t="shared" si="2"/>
+        <v>4.5328301623638308E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5219,13 +5990,17 @@
       <c r="D190" s="5">
         <v>65</v>
       </c>
-      <c r="E190" s="6">
+      <c r="F190" s="6">
         <f>SUM(C$2:C190)/SUM(C$2:C$190)</f>
         <v>1</v>
       </c>
-      <c r="F190" s="6">
+      <c r="G190" s="6">
         <f>SUM(D$2:D190)/SUM(D$2:D$190)</f>
         <v>1</v>
+      </c>
+      <c r="H190" s="6">
+        <f t="shared" si="2"/>
+        <v>8.7169810814689049E-5</v>
       </c>
     </row>
   </sheetData>
